--- a/dataset2.xlsx
+++ b/dataset2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1473,6 +1473,383 @@
         <v>88.3596281130382</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>unet</t>
+        </is>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>resnet50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>dataset2</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>89.04613040354592</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>unet</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>resnet50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>dataset2</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>88.32292711568712</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>unet</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>resnet101</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>dataset2</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>88.09137250937793</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>unet</t>
+        </is>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>resnet101</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>dataset2</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>88.13182176963976</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>unet</t>
+        </is>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>resnet50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>dataset2</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>93.66938611456852</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>unet</t>
+        </is>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>resnet50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>dataset2</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>92.7611991222989</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>unet</t>
+        </is>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>resnet50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>dataset2</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>89.22381578341184</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>unet</t>
+        </is>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>resnet50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>dataset2</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>88.04075741510587</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>unet</t>
+        </is>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>resnet50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>dataset2</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>87.66357907127298</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>unet</t>
+        </is>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>resnet101</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>dataset2</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>88.32159732671369</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>unet</t>
+        </is>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>resnet101</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>dataset2</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>87.79671327503077</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>unet</t>
+        </is>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>resnet101</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>dataset2</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>88.72011424514183</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>unet</t>
+        </is>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>resnet101</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>dataset2</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>88.86130991818276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
